--- a/projects/WAR/WAR.xlsx
+++ b/projects/WAR/WAR.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="war" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
   <si>
     <t>Barry Bonds (22)</t>
   </si>
@@ -3017,6 +3017,9 @@
   </si>
   <si>
     <t>WAR</t>
+  </si>
+  <si>
+    <t>Current_Ballot</t>
   </si>
 </sst>
 </file>
@@ -3841,27 +3844,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>999</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>748</v>
       </c>
@@ -3869,7 +3876,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>906</v>
       </c>
@@ -3877,7 +3884,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>754</v>
       </c>
@@ -3885,7 +3892,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>994</v>
       </c>
@@ -3893,7 +3900,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>876</v>
       </c>
@@ -3901,7 +3908,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>998</v>
       </c>
@@ -3909,7 +3916,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>977</v>
       </c>
@@ -3917,7 +3924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>498</v>
       </c>
@@ -3925,7 +3932,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>866</v>
       </c>
@@ -3933,7 +3940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3941,7 +3948,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -3949,7 +3956,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>964</v>
       </c>
@@ -3957,7 +3964,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>727</v>
       </c>
@@ -3965,7 +3972,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -3973,7 +3980,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3981,7 +3988,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>832</v>
       </c>
@@ -3989,7 +3996,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>268</v>
       </c>
@@ -3997,7 +4004,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -4005,7 +4012,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -4013,7 +4020,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>917</v>
       </c>
@@ -4021,7 +4028,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>328</v>
       </c>
@@ -4037,7 +4044,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -4045,7 +4052,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>880</v>
       </c>
@@ -4053,7 +4060,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>402</v>
       </c>
@@ -4061,7 +4068,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>624</v>
       </c>
@@ -4069,7 +4076,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4077,7 +4084,7 @@
         <v>117.8</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>882</v>
       </c>
@@ -4085,15 +4092,18 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>594</v>
       </c>
       <c r="B30">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>920</v>
       </c>
@@ -4101,7 +4111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>281</v>
       </c>
@@ -4109,7 +4119,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>609</v>
       </c>
@@ -4117,7 +4127,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -4125,7 +4135,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>856</v>
       </c>
@@ -4133,7 +4143,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>735</v>
       </c>
@@ -4141,7 +4151,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>397</v>
       </c>
@@ -4149,7 +4159,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>510</v>
       </c>
@@ -4157,7 +4167,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>270</v>
       </c>
@@ -4165,15 +4175,18 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>106</v>
       </c>
       <c r="B40">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>401</v>
       </c>
@@ -4181,7 +4194,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>786</v>
       </c>
@@ -4189,7 +4202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>308</v>
       </c>
@@ -4197,7 +4210,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>629</v>
       </c>
@@ -4205,7 +4218,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>482</v>
       </c>
@@ -4213,7 +4226,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>486</v>
       </c>
@@ -4221,7 +4234,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -4229,7 +4242,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>531</v>
       </c>
@@ -4237,7 +4250,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>406</v>
       </c>
@@ -4245,7 +4258,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>218</v>
       </c>
@@ -4253,7 +4266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>596</v>
       </c>
@@ -4261,7 +4274,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>900</v>
       </c>
@@ -4269,7 +4282,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>311</v>
       </c>
@@ -4277,7 +4290,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>819</v>
       </c>
@@ -4285,7 +4298,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>441</v>
       </c>
@@ -4293,7 +4306,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>324</v>
       </c>
@@ -4301,7 +4314,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -4309,7 +4322,7 @@
         <v>162.1</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>582</v>
       </c>
@@ -4317,7 +4330,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>797</v>
       </c>
@@ -4325,7 +4338,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>881</v>
       </c>
@@ -4333,15 +4346,18 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61">
         <v>162.80000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -4349,7 +4365,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>309</v>
       </c>
@@ -4357,7 +4373,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>657</v>
       </c>
@@ -4877,7 +4893,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>969</v>
       </c>
@@ -4885,7 +4901,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>524</v>
       </c>
@@ -4893,7 +4909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>790</v>
       </c>
@@ -4901,7 +4917,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>197</v>
       </c>
@@ -4909,7 +4925,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>306</v>
       </c>
@@ -4917,7 +4933,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>180</v>
       </c>
@@ -4925,7 +4941,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>728</v>
       </c>
@@ -4933,7 +4949,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>183</v>
       </c>
@@ -4941,7 +4957,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>476</v>
       </c>
@@ -4949,7 +4965,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>507</v>
       </c>
@@ -4957,15 +4973,18 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>536</v>
       </c>
       <c r="B139">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>40</v>
       </c>
@@ -4973,7 +4992,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>956</v>
       </c>
@@ -4981,7 +5000,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>515</v>
       </c>
@@ -4989,7 +5008,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>210</v>
       </c>
@@ -4997,7 +5016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>737</v>
       </c>
@@ -5133,7 +5152,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -5141,7 +5160,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>938</v>
       </c>
@@ -5149,7 +5168,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>70</v>
       </c>
@@ -5157,7 +5176,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>864</v>
       </c>
@@ -5165,7 +5184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>259</v>
       </c>
@@ -5173,7 +5192,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>708</v>
       </c>
@@ -5181,7 +5200,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>738</v>
       </c>
@@ -5189,7 +5208,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>610</v>
       </c>
@@ -5197,7 +5216,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>588</v>
       </c>
@@ -5205,15 +5224,18 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>700</v>
       </c>
       <c r="B170">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>802</v>
       </c>
@@ -5221,7 +5243,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>532</v>
       </c>
@@ -5229,7 +5251,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>79</v>
       </c>
@@ -5237,7 +5259,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>323</v>
       </c>
@@ -5245,7 +5267,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>707</v>
       </c>
@@ -5253,7 +5275,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>918</v>
       </c>
@@ -5389,7 +5411,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>958</v>
       </c>
@@ -5397,7 +5419,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>542</v>
       </c>
@@ -5405,7 +5427,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>508</v>
       </c>
@@ -5413,7 +5435,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>855</v>
       </c>
@@ -5421,7 +5443,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>696</v>
       </c>
@@ -5429,7 +5451,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>556</v>
       </c>
@@ -5437,7 +5459,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>367</v>
       </c>
@@ -5445,7 +5467,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>31</v>
       </c>
@@ -5453,15 +5475,18 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>814</v>
       </c>
       <c r="B201">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>618</v>
       </c>
@@ -5469,7 +5494,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>762</v>
       </c>
@@ -5477,7 +5502,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>530</v>
       </c>
@@ -5485,7 +5510,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>461</v>
       </c>
@@ -5493,7 +5518,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>269</v>
       </c>
@@ -5501,7 +5526,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>257</v>
       </c>
@@ -5509,7 +5534,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>435</v>
       </c>
@@ -5901,7 +5926,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>712</v>
       </c>
@@ -5909,7 +5934,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>240</v>
       </c>
@@ -5917,7 +5942,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>577</v>
       </c>
@@ -5925,7 +5950,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>521</v>
       </c>
@@ -5933,7 +5958,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>241</v>
       </c>
@@ -5941,7 +5966,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>729</v>
       </c>
@@ -5949,7 +5974,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>665</v>
       </c>
@@ -5957,7 +5982,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>597</v>
       </c>
@@ -5965,7 +5990,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>419</v>
       </c>
@@ -5973,15 +5998,18 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>57</v>
       </c>
       <c r="B266">
         <v>72.400000000000006</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
+      <c r="C266">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>434</v>
       </c>
@@ -5989,7 +6017,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>217</v>
       </c>
@@ -5997,7 +6025,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>942</v>
       </c>
@@ -6005,7 +6033,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>130</v>
       </c>
@@ -6013,7 +6041,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>326</v>
       </c>
@@ -6021,7 +6049,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>400</v>
       </c>
@@ -6413,7 +6441,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>450</v>
       </c>
@@ -6421,7 +6449,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>80</v>
       </c>
@@ -6429,7 +6457,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>496</v>
       </c>
@@ -6437,7 +6465,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>571</v>
       </c>
@@ -6445,7 +6473,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>428</v>
       </c>
@@ -6453,7 +6481,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>497</v>
       </c>
@@ -6461,7 +6489,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>196</v>
       </c>
@@ -6469,7 +6497,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>165</v>
       </c>
@@ -6477,7 +6505,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>599</v>
       </c>
@@ -6485,7 +6513,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>641</v>
       </c>
@@ -6493,7 +6521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>509</v>
       </c>
@@ -6501,7 +6529,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>968</v>
       </c>
@@ -6509,7 +6537,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>150</v>
       </c>
@@ -6517,15 +6545,18 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>380</v>
       </c>
       <c r="B334">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
+      <c r="C334">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>410</v>
       </c>
@@ -6533,7 +6564,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>842</v>
       </c>
@@ -6797,7 +6828,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>414</v>
       </c>
@@ -6805,7 +6836,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>122</v>
       </c>
@@ -6813,7 +6844,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>679</v>
       </c>
@@ -6821,7 +6852,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>398</v>
       </c>
@@ -6829,7 +6860,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>605</v>
       </c>
@@ -6837,7 +6868,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>68</v>
       </c>
@@ -6845,7 +6876,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>298</v>
       </c>
@@ -6853,7 +6884,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>535</v>
       </c>
@@ -6861,7 +6892,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>824</v>
       </c>
@@ -6869,15 +6900,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>116</v>
       </c>
       <c r="B378">
         <v>60.5</v>
       </c>
-    </row>
-    <row r="379" spans="1:2">
+      <c r="C378">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>471</v>
       </c>
@@ -6885,7 +6919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>732</v>
       </c>
@@ -6893,7 +6927,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>992</v>
       </c>
@@ -6901,7 +6935,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>224</v>
       </c>
@@ -6909,7 +6943,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>466</v>
       </c>
@@ -6917,7 +6951,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>831</v>
       </c>
@@ -7693,7 +7727,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:3">
       <c r="A481" t="s">
         <v>602</v>
       </c>
@@ -7701,7 +7735,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:3">
       <c r="A482" t="s">
         <v>113</v>
       </c>
@@ -7709,7 +7743,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:3">
       <c r="A483" t="s">
         <v>520</v>
       </c>
@@ -7717,7 +7751,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:3">
       <c r="A484" t="s">
         <v>111</v>
       </c>
@@ -7725,7 +7759,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:3">
       <c r="A485" t="s">
         <v>347</v>
       </c>
@@ -7733,7 +7767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:3">
       <c r="A486" t="s">
         <v>851</v>
       </c>
@@ -7741,7 +7775,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:3">
       <c r="A487" t="s">
         <v>724</v>
       </c>
@@ -7749,15 +7783,18 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:3">
       <c r="A488" t="s">
         <v>187</v>
       </c>
       <c r="B488">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="489" spans="1:2">
+      <c r="C488">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
       <c r="A489" t="s">
         <v>394</v>
       </c>
@@ -7765,7 +7802,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:3">
       <c r="A490" t="s">
         <v>305</v>
       </c>
@@ -7773,7 +7810,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:3">
       <c r="A491" t="s">
         <v>816</v>
       </c>
@@ -7781,7 +7818,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:3">
       <c r="A492" t="s">
         <v>706</v>
       </c>
@@ -7789,7 +7826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
         <v>736</v>
       </c>
@@ -7797,7 +7834,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:3">
       <c r="A494" t="s">
         <v>548</v>
       </c>
@@ -7805,7 +7842,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:3">
       <c r="A495" t="s">
         <v>385</v>
       </c>
@@ -7813,7 +7850,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:3">
       <c r="A496" t="s">
         <v>932</v>
       </c>
@@ -7821,7 +7858,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
         <v>784</v>
       </c>
@@ -7829,7 +7866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:3">
       <c r="A498" t="s">
         <v>567</v>
       </c>
@@ -7837,7 +7874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:3">
       <c r="A499" t="s">
         <v>946</v>
       </c>
@@ -7845,7 +7882,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:3">
       <c r="A500" t="s">
         <v>37</v>
       </c>
@@ -7853,7 +7890,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:3">
       <c r="A501" t="s">
         <v>869</v>
       </c>
@@ -7861,7 +7898,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:3">
       <c r="A502" t="s">
         <v>436</v>
       </c>
@@ -7869,7 +7906,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:3">
       <c r="A503" t="s">
         <v>950</v>
       </c>
@@ -7877,7 +7914,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:3">
       <c r="A504" t="s">
         <v>392</v>
       </c>
@@ -7885,15 +7922,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:3">
       <c r="A505" t="s">
         <v>148</v>
       </c>
       <c r="B505">
         <v>55.4</v>
       </c>
-    </row>
-    <row r="506" spans="1:2">
+      <c r="C505">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
       <c r="A506" t="s">
         <v>903</v>
       </c>
@@ -7901,7 +7941,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:3">
       <c r="A507" t="s">
         <v>926</v>
       </c>
@@ -7909,7 +7949,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:3">
       <c r="A508" t="s">
         <v>870</v>
       </c>
@@ -7917,7 +7957,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:3">
       <c r="A509" t="s">
         <v>811</v>
       </c>
@@ -7925,7 +7965,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:3">
       <c r="A510" t="s">
         <v>995</v>
       </c>
@@ -7933,7 +7973,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
         <v>339</v>
       </c>
@@ -7941,7 +7981,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:3">
       <c r="A512" t="s">
         <v>107</v>
       </c>
@@ -8461,7 +8501,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="577" spans="1:2">
+    <row r="577" spans="1:3">
       <c r="A577" t="s">
         <v>853</v>
       </c>
@@ -8469,7 +8509,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:3">
       <c r="A578" t="s">
         <v>886</v>
       </c>
@@ -8477,7 +8517,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:3">
       <c r="A579" t="s">
         <v>47</v>
       </c>
@@ -8485,7 +8525,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:3">
       <c r="A580" t="s">
         <v>363</v>
       </c>
@@ -8493,7 +8533,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:3">
       <c r="A581" t="s">
         <v>142</v>
       </c>
@@ -8501,7 +8541,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:3">
       <c r="A582" t="s">
         <v>212</v>
       </c>
@@ -8509,7 +8549,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="583" spans="1:2">
+    <row r="583" spans="1:3">
       <c r="A583" t="s">
         <v>795</v>
       </c>
@@ -8517,7 +8557,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" spans="1:3">
       <c r="A584" t="s">
         <v>569</v>
       </c>
@@ -8525,7 +8565,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="585" spans="1:2">
+    <row r="585" spans="1:3">
       <c r="A585" t="s">
         <v>485</v>
       </c>
@@ -8533,7 +8573,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" spans="1:3">
       <c r="A586" t="s">
         <v>61</v>
       </c>
@@ -8541,7 +8581,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" spans="1:3">
       <c r="A587" t="s">
         <v>733</v>
       </c>
@@ -8549,7 +8589,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:3">
       <c r="A588" t="s">
         <v>506</v>
       </c>
@@ -8557,7 +8597,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="589" spans="1:2">
+    <row r="589" spans="1:3">
       <c r="A589" t="s">
         <v>734</v>
       </c>
@@ -8565,7 +8605,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" spans="1:3">
       <c r="A590" t="s">
         <v>282</v>
       </c>
@@ -8573,15 +8613,18 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:3">
       <c r="A591" t="s">
         <v>852</v>
       </c>
       <c r="B591">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="592" spans="1:2">
+      <c r="C591">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
       <c r="A592" t="s">
         <v>362</v>
       </c>
@@ -8973,7 +9016,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="641" spans="1:2">
+    <row r="641" spans="1:3">
       <c r="A641" t="s">
         <v>198</v>
       </c>
@@ -8981,7 +9024,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="642" spans="1:2">
+    <row r="642" spans="1:3">
       <c r="A642" t="s">
         <v>249</v>
       </c>
@@ -8989,7 +9032,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="643" spans="1:2">
+    <row r="643" spans="1:3">
       <c r="A643" t="s">
         <v>206</v>
       </c>
@@ -8997,7 +9040,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="644" spans="1:2">
+    <row r="644" spans="1:3">
       <c r="A644" t="s">
         <v>704</v>
       </c>
@@ -9005,15 +9048,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="645" spans="1:2">
+    <row r="645" spans="1:3">
       <c r="A645" t="s">
         <v>55</v>
       </c>
       <c r="B645">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="646" spans="1:2">
+      <c r="C645">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
       <c r="A646" t="s">
         <v>227</v>
       </c>
@@ -9021,7 +9067,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="647" spans="1:2">
+    <row r="647" spans="1:3">
       <c r="A647" t="s">
         <v>909</v>
       </c>
@@ -9029,7 +9075,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="648" spans="1:2">
+    <row r="648" spans="1:3">
       <c r="A648" t="s">
         <v>633</v>
       </c>
@@ -9037,7 +9083,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" spans="1:3">
       <c r="A649" t="s">
         <v>878</v>
       </c>
@@ -9045,7 +9091,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="650" spans="1:2">
+    <row r="650" spans="1:3">
       <c r="A650" t="s">
         <v>637</v>
       </c>
@@ -9053,7 +9099,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="651" spans="1:2">
+    <row r="651" spans="1:3">
       <c r="A651" t="s">
         <v>288</v>
       </c>
@@ -9061,7 +9107,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="652" spans="1:2">
+    <row r="652" spans="1:3">
       <c r="A652" t="s">
         <v>628</v>
       </c>
@@ -9069,7 +9115,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="653" spans="1:2">
+    <row r="653" spans="1:3">
       <c r="A653" t="s">
         <v>620</v>
       </c>
@@ -9077,7 +9123,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="654" spans="1:2">
+    <row r="654" spans="1:3">
       <c r="A654" t="s">
         <v>741</v>
       </c>
@@ -9085,7 +9131,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="655" spans="1:2">
+    <row r="655" spans="1:3">
       <c r="A655" t="s">
         <v>364</v>
       </c>
@@ -9093,7 +9139,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="656" spans="1:2">
+    <row r="656" spans="1:3">
       <c r="A656" t="s">
         <v>352</v>
       </c>
@@ -9101,7 +9147,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" spans="1:3">
       <c r="A657" t="s">
         <v>393</v>
       </c>
@@ -9109,7 +9155,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="658" spans="1:2">
+    <row r="658" spans="1:3">
       <c r="A658" t="s">
         <v>103</v>
       </c>
@@ -9117,7 +9163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="659" spans="1:2">
+    <row r="659" spans="1:3">
       <c r="A659" t="s">
         <v>244</v>
       </c>
@@ -9125,7 +9171,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="660" spans="1:2">
+    <row r="660" spans="1:3">
       <c r="A660" t="s">
         <v>12</v>
       </c>
@@ -9133,7 +9179,7 @@
         <v>112.4</v>
       </c>
     </row>
-    <row r="661" spans="1:2">
+    <row r="661" spans="1:3">
       <c r="A661" t="s">
         <v>48</v>
       </c>
@@ -9141,7 +9187,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="662" spans="1:2">
+    <row r="662" spans="1:3">
       <c r="A662" t="s">
         <v>399</v>
       </c>
@@ -9149,7 +9195,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" spans="1:3">
       <c r="A663" t="s">
         <v>145</v>
       </c>
@@ -9157,7 +9203,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="664" spans="1:2">
+    <row r="664" spans="1:3">
       <c r="A664" t="s">
         <v>559</v>
       </c>
@@ -9165,7 +9211,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="665" spans="1:2">
+    <row r="665" spans="1:3">
       <c r="A665" t="s">
         <v>177</v>
       </c>
@@ -9173,7 +9219,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="666" spans="1:2">
+    <row r="666" spans="1:3">
       <c r="A666" t="s">
         <v>49</v>
       </c>
@@ -9181,7 +9227,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" spans="1:3">
       <c r="A667" t="s">
         <v>962</v>
       </c>
@@ -9189,7 +9235,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="668" spans="1:2">
+    <row r="668" spans="1:3">
       <c r="A668" t="s">
         <v>884</v>
       </c>
@@ -9197,7 +9243,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="669" spans="1:2">
+    <row r="669" spans="1:3">
       <c r="A669" t="s">
         <v>357</v>
       </c>
@@ -9205,7 +9251,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="670" spans="1:2">
+    <row r="670" spans="1:3">
       <c r="A670" t="s">
         <v>395</v>
       </c>
@@ -9213,15 +9259,18 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="671" spans="1:2">
+    <row r="671" spans="1:3">
       <c r="A671" t="s">
         <v>74</v>
       </c>
       <c r="B671">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="672" spans="1:2">
+      <c r="C671">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
       <c r="A672" t="s">
         <v>621</v>
       </c>
@@ -9741,7 +9790,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="737" spans="1:2">
+    <row r="737" spans="1:3">
       <c r="A737" t="s">
         <v>847</v>
       </c>
@@ -9749,7 +9798,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="738" spans="1:2">
+    <row r="738" spans="1:3">
       <c r="A738" t="s">
         <v>300</v>
       </c>
@@ -9757,7 +9806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="739" spans="1:2">
+    <row r="739" spans="1:3">
       <c r="A739" t="s">
         <v>810</v>
       </c>
@@ -9765,7 +9814,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="740" spans="1:2">
+    <row r="740" spans="1:3">
       <c r="A740" t="s">
         <v>916</v>
       </c>
@@ -9773,7 +9822,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="741" spans="1:2">
+    <row r="741" spans="1:3">
       <c r="A741" t="s">
         <v>16</v>
       </c>
@@ -9781,7 +9830,7 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="742" spans="1:2">
+    <row r="742" spans="1:3">
       <c r="A742" t="s">
         <v>411</v>
       </c>
@@ -9789,7 +9838,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="743" spans="1:2">
+    <row r="743" spans="1:3">
       <c r="A743" t="s">
         <v>860</v>
       </c>
@@ -9797,7 +9846,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="744" spans="1:2">
+    <row r="744" spans="1:3">
       <c r="A744" t="s">
         <v>202</v>
       </c>
@@ -9805,7 +9854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="745" spans="1:2">
+    <row r="745" spans="1:3">
       <c r="A745" t="s">
         <v>374</v>
       </c>
@@ -9813,7 +9862,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="746" spans="1:2">
+    <row r="746" spans="1:3">
       <c r="A746" t="s">
         <v>474</v>
       </c>
@@ -9821,7 +9870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="747" spans="1:2">
+    <row r="747" spans="1:3">
       <c r="A747" t="s">
         <v>825</v>
       </c>
@@ -9829,7 +9878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="748" spans="1:2">
+    <row r="748" spans="1:3">
       <c r="A748" t="s">
         <v>353</v>
       </c>
@@ -9837,7 +9886,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="749" spans="1:2">
+    <row r="749" spans="1:3">
       <c r="A749" t="s">
         <v>264</v>
       </c>
@@ -9845,7 +9894,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="750" spans="1:2">
+    <row r="750" spans="1:3">
       <c r="A750" t="s">
         <v>176</v>
       </c>
@@ -9853,7 +9902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="751" spans="1:2">
+    <row r="751" spans="1:3">
       <c r="A751" t="s">
         <v>867</v>
       </c>
@@ -9861,15 +9910,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="752" spans="1:2">
+    <row r="752" spans="1:3">
       <c r="A752" t="s">
         <v>242</v>
       </c>
       <c r="B752">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="753" spans="1:2">
+      <c r="C752">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3">
       <c r="A753" t="s">
         <v>960</v>
       </c>
@@ -9877,7 +9929,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="754" spans="1:2">
+    <row r="754" spans="1:3">
       <c r="A754" t="s">
         <v>843</v>
       </c>
@@ -9885,7 +9937,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="755" spans="1:2">
+    <row r="755" spans="1:3">
       <c r="A755" t="s">
         <v>192</v>
       </c>
@@ -9893,7 +9945,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="756" spans="1:2">
+    <row r="756" spans="1:3">
       <c r="A756" t="s">
         <v>525</v>
       </c>
@@ -9901,7 +9953,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="757" spans="1:2">
+    <row r="757" spans="1:3">
       <c r="A757" t="s">
         <v>787</v>
       </c>
@@ -9909,7 +9961,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="758" spans="1:2">
+    <row r="758" spans="1:3">
       <c r="A758" t="s">
         <v>586</v>
       </c>
@@ -9917,7 +9969,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="759" spans="1:2">
+    <row r="759" spans="1:3">
       <c r="A759" t="s">
         <v>667</v>
       </c>
@@ -9925,7 +9977,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="760" spans="1:2">
+    <row r="760" spans="1:3">
       <c r="A760" t="s">
         <v>872</v>
       </c>
@@ -9933,7 +9985,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="761" spans="1:2">
+    <row r="761" spans="1:3">
       <c r="A761" t="s">
         <v>43</v>
       </c>
@@ -9941,7 +9993,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="762" spans="1:2">
+    <row r="762" spans="1:3">
       <c r="A762" t="s">
         <v>930</v>
       </c>
@@ -9949,7 +10001,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="763" spans="1:2">
+    <row r="763" spans="1:3">
       <c r="A763" t="s">
         <v>980</v>
       </c>
@@ -9957,7 +10009,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="764" spans="1:2">
+    <row r="764" spans="1:3">
       <c r="A764" t="s">
         <v>377</v>
       </c>
@@ -9965,7 +10017,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="765" spans="1:2">
+    <row r="765" spans="1:3">
       <c r="A765" t="s">
         <v>276</v>
       </c>
@@ -9973,7 +10025,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="766" spans="1:2">
+    <row r="766" spans="1:3">
       <c r="A766" t="s">
         <v>252</v>
       </c>
@@ -9981,15 +10033,18 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="767" spans="1:2">
+    <row r="767" spans="1:3">
       <c r="A767" t="s">
         <v>611</v>
       </c>
       <c r="B767">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="768" spans="1:2">
+      <c r="C767">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3">
       <c r="A768" t="s">
         <v>44</v>
       </c>
@@ -10125,7 +10180,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="785" spans="1:2">
+    <row r="785" spans="1:3">
       <c r="A785" t="s">
         <v>986</v>
       </c>
@@ -10133,7 +10188,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="786" spans="1:2">
+    <row r="786" spans="1:3">
       <c r="A786" t="s">
         <v>307</v>
       </c>
@@ -10141,7 +10196,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="787" spans="1:2">
+    <row r="787" spans="1:3">
       <c r="A787" t="s">
         <v>758</v>
       </c>
@@ -10149,7 +10204,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="788" spans="1:2">
+    <row r="788" spans="1:3">
       <c r="A788" t="s">
         <v>280</v>
       </c>
@@ -10157,15 +10212,18 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="789" spans="1:2">
+    <row r="789" spans="1:3">
       <c r="A789" t="s">
         <v>341</v>
       </c>
       <c r="B789">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="790" spans="1:2">
+      <c r="C789">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3">
       <c r="A790" t="s">
         <v>59</v>
       </c>
@@ -10173,7 +10231,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="791" spans="1:2">
+    <row r="791" spans="1:3">
       <c r="A791" t="s">
         <v>201</v>
       </c>
@@ -10181,7 +10239,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="792" spans="1:2">
+    <row r="792" spans="1:3">
       <c r="A792" t="s">
         <v>829</v>
       </c>
@@ -10189,7 +10247,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="793" spans="1:2">
+    <row r="793" spans="1:3">
       <c r="A793" t="s">
         <v>716</v>
       </c>
@@ -10197,7 +10255,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="794" spans="1:2">
+    <row r="794" spans="1:3">
       <c r="A794" t="s">
         <v>617</v>
       </c>
@@ -10205,15 +10263,18 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="795" spans="1:2">
+    <row r="795" spans="1:3">
       <c r="A795" t="s">
         <v>901</v>
       </c>
       <c r="B795">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="796" spans="1:2">
+      <c r="C795">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3">
       <c r="A796" t="s">
         <v>552</v>
       </c>
@@ -10221,7 +10282,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="797" spans="1:2">
+    <row r="797" spans="1:3">
       <c r="A797" t="s">
         <v>680</v>
       </c>
@@ -10229,7 +10290,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="798" spans="1:2">
+    <row r="798" spans="1:3">
       <c r="A798" t="s">
         <v>560</v>
       </c>
@@ -10237,7 +10298,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="799" spans="1:2">
+    <row r="799" spans="1:3">
       <c r="A799" t="s">
         <v>454</v>
       </c>
@@ -10245,7 +10306,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="800" spans="1:2">
+    <row r="800" spans="1:3">
       <c r="A800" t="s">
         <v>368</v>
       </c>
@@ -10765,7 +10826,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="865" spans="1:2">
+    <row r="865" spans="1:3">
       <c r="A865" t="s">
         <v>812</v>
       </c>
@@ -10773,7 +10834,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="866" spans="1:2">
+    <row r="866" spans="1:3">
       <c r="A866" t="s">
         <v>46</v>
       </c>
@@ -10781,7 +10842,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="867" spans="1:2">
+    <row r="867" spans="1:3">
       <c r="A867" t="s">
         <v>776</v>
       </c>
@@ -10789,7 +10850,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="868" spans="1:2">
+    <row r="868" spans="1:3">
       <c r="A868" t="s">
         <v>172</v>
       </c>
@@ -10797,7 +10858,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="869" spans="1:2">
+    <row r="869" spans="1:3">
       <c r="A869" t="s">
         <v>260</v>
       </c>
@@ -10805,7 +10866,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="870" spans="1:2">
+    <row r="870" spans="1:3">
       <c r="A870" t="s">
         <v>558</v>
       </c>
@@ -10813,7 +10874,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="871" spans="1:2">
+    <row r="871" spans="1:3">
       <c r="A871" t="s">
         <v>908</v>
       </c>
@@ -10821,15 +10882,18 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="872" spans="1:2">
+    <row r="872" spans="1:3">
       <c r="A872" t="s">
         <v>131</v>
       </c>
       <c r="B872">
         <v>58.6</v>
       </c>
-    </row>
-    <row r="873" spans="1:2">
+      <c r="C872">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3">
       <c r="A873" t="s">
         <v>503</v>
       </c>
@@ -10837,15 +10901,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="874" spans="1:2">
+    <row r="874" spans="1:3">
       <c r="A874" t="s">
         <v>67</v>
       </c>
       <c r="B874">
         <v>70.2</v>
       </c>
-    </row>
-    <row r="875" spans="1:2">
+      <c r="C874">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3">
       <c r="A875" t="s">
         <v>839</v>
       </c>
@@ -10853,7 +10920,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="876" spans="1:2">
+    <row r="876" spans="1:3">
       <c r="A876" t="s">
         <v>514</v>
       </c>
@@ -10861,7 +10928,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="877" spans="1:2">
+    <row r="877" spans="1:3">
       <c r="A877" t="s">
         <v>715</v>
       </c>
@@ -10869,7 +10936,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="878" spans="1:2">
+    <row r="878" spans="1:3">
       <c r="A878" t="s">
         <v>432</v>
       </c>
@@ -10877,7 +10944,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="879" spans="1:2">
+    <row r="879" spans="1:3">
       <c r="A879" t="s">
         <v>541</v>
       </c>
@@ -10885,7 +10952,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="880" spans="1:2">
+    <row r="880" spans="1:3">
       <c r="A880" t="s">
         <v>128</v>
       </c>
@@ -11149,7 +11216,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="913" spans="1:2">
+    <row r="913" spans="1:3">
       <c r="A913" t="s">
         <v>591</v>
       </c>
@@ -11157,7 +11224,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="914" spans="1:2">
+    <row r="914" spans="1:3">
       <c r="A914" t="s">
         <v>73</v>
       </c>
@@ -11165,7 +11232,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="915" spans="1:2">
+    <row r="915" spans="1:3">
       <c r="A915" t="s">
         <v>321</v>
       </c>
@@ -11173,7 +11240,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="916" spans="1:2">
+    <row r="916" spans="1:3">
       <c r="A916" t="s">
         <v>365</v>
       </c>
@@ -11181,7 +11248,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="917" spans="1:2">
+    <row r="917" spans="1:3">
       <c r="A917" t="s">
         <v>566</v>
       </c>
@@ -11189,7 +11256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="918" spans="1:2">
+    <row r="918" spans="1:3">
       <c r="A918" t="s">
         <v>616</v>
       </c>
@@ -11197,7 +11264,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="919" spans="1:2">
+    <row r="919" spans="1:3">
       <c r="A919" t="s">
         <v>181</v>
       </c>
@@ -11205,7 +11272,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="920" spans="1:2">
+    <row r="920" spans="1:3">
       <c r="A920" t="s">
         <v>672</v>
       </c>
@@ -11213,15 +11280,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="921" spans="1:2">
+    <row r="921" spans="1:3">
       <c r="A921" t="s">
         <v>114</v>
       </c>
       <c r="B921">
         <v>61.2</v>
       </c>
-    </row>
-    <row r="922" spans="1:2">
+      <c r="C921">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3">
       <c r="A922" t="s">
         <v>955</v>
       </c>
@@ -11229,7 +11299,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="923" spans="1:2">
+    <row r="923" spans="1:3">
       <c r="A923" t="s">
         <v>821</v>
       </c>
@@ -11237,7 +11307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="924" spans="1:2">
+    <row r="924" spans="1:3">
       <c r="A924" t="s">
         <v>803</v>
       </c>
@@ -11245,7 +11315,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="925" spans="1:2">
+    <row r="925" spans="1:3">
       <c r="A925" t="s">
         <v>651</v>
       </c>
@@ -11253,7 +11323,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="926" spans="1:2">
+    <row r="926" spans="1:3">
       <c r="A926" t="s">
         <v>557</v>
       </c>
@@ -11261,7 +11331,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="927" spans="1:2">
+    <row r="927" spans="1:3">
       <c r="A927" t="s">
         <v>761</v>
       </c>
@@ -11269,7 +11339,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="928" spans="1:2">
+    <row r="928" spans="1:3">
       <c r="A928" t="s">
         <v>826</v>
       </c>
